--- a/Manuscript_Code/D_Feature_Comparisons/Output_FeatureComparison/Top20/20concat_unfiltered_03112025.xlsx
+++ b/Manuscript_Code/D_Feature_Comparisons/Output_FeatureComparison/Top20/20concat_unfiltered_03112025.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,63 +598,63 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>un_franzosa_ControlvsCD_Fp</t>
+          <t>un_franzosa_ControlvsCD_ConvCD</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="F9">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="H9">
-        <v>0.35</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>un_franzosa_ControlvsDisease_Age</t>
+          <t>un_franzosa_ControlvsCD_Fp</t>
         </is>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E10">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="G10">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H10">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>un_franzosa_ControlvsDisease_ConvDisease</t>
+          <t>un_franzosa_ControlvsDisease_Age</t>
         </is>
       </c>
       <c r="B11">
@@ -667,106 +667,106 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="H11">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>un_franzosa_ControlvsDisease_Fp</t>
+          <t>un_franzosa_ControlvsDisease_ConvDisease</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="F12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0.55</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>un_franzosa_ControlvsUC_Age</t>
+          <t>un_franzosa_ControlvsDisease_Fp</t>
         </is>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>0.05</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
       <c r="E13">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="F13">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="G13">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="H13">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>un_franzosa_ControlvsUC_Fp</t>
+          <t>un_franzosa_ControlvsUC_Age</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="F14">
+        <v>0.95</v>
+      </c>
+      <c r="G14">
+        <v>0.6</v>
+      </c>
+      <c r="H14">
         <v>0.65</v>
-      </c>
-      <c r="G14">
-        <v>0.45</v>
-      </c>
-      <c r="H14">
-        <v>0.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>nf_yachida_age</t>
+          <t>un_franzosa_ControlvsUC_ConvUC</t>
         </is>
       </c>
       <c r="B15">
@@ -776,29 +776,29 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0.3</v>
       </c>
       <c r="F15">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0.7</v>
       </c>
       <c r="H15">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>nf_yachida_alcohol</t>
+          <t>un_franzosa_ControlvsUC_Fp</t>
         </is>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C16">
         <v>0.15</v>
@@ -807,134 +807,134 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F16">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="G16">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="H16">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>nf_yachida_BrinkmanIndex</t>
+          <t>nf_yachida_age</t>
         </is>
       </c>
       <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>0.05</v>
       </c>
-      <c r="C17">
-        <v>0.1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
       <c r="E17">
+        <v>0.3</v>
+      </c>
+      <c r="F17">
+        <v>0.95</v>
+      </c>
+      <c r="G17">
+        <v>0.7</v>
+      </c>
+      <c r="H17">
         <v>0.65</v>
-      </c>
-      <c r="F17">
-        <v>0.85</v>
-      </c>
-      <c r="G17">
-        <v>0.2</v>
-      </c>
-      <c r="H17">
-        <v>0.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>nf_yachida_gender</t>
+          <t>nf_yachida_alcohol</t>
         </is>
       </c>
       <c r="B18">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D18">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F18">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G18">
         <v>0.35</v>
       </c>
       <c r="H18">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>nf_yachida_healthyvscancer</t>
+          <t>nf_yachida_BrinkmanIndex</t>
         </is>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G19">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H19">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>nf_yachida_healthyvsstageIII_IV</t>
+          <t>nf_yachida_gender</t>
         </is>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C20">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E20">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F20">
         <v>0.9</v>
       </c>
       <c r="G20">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="H20">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nf_wang_age</t>
+          <t>nf_yachida_healthyvscancer</t>
         </is>
       </c>
       <c r="B21">
@@ -947,134 +947,134 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="H21">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>nf_wang_bmi</t>
+          <t>nf_yachida_healthyvsstageIII_IV</t>
         </is>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D22">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="F22">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G22">
+        <v>0.5</v>
+      </c>
+      <c r="H22">
         <v>0.6</v>
-      </c>
-      <c r="H22">
-        <v>0.55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nf_wang_creatinine</t>
+          <t>nf_wang_age</t>
         </is>
       </c>
       <c r="B23">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0.45</v>
       </c>
       <c r="F23">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="H23">
-        <v>0.25</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nf_wang_egfr</t>
+          <t>nf_wang_bmi</t>
         </is>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E24">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nf_wang_studygroup</t>
+          <t>nf_wang_creatinine</t>
         </is>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E25">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H25">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>nf_wang_urea</t>
+          <t>nf_wang_egfr</t>
         </is>
       </c>
       <c r="B26">
@@ -1087,15 +1087,71 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
+        <v>0.5</v>
+      </c>
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>nf_wang_studygroup</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.5</v>
+      </c>
+      <c r="H27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>nf_wang_urea</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.55</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <v>0.45</v>
       </c>
-      <c r="H26">
+      <c r="H28">
         <v>0.45</v>
       </c>
     </row>
